--- a/prep/LSP/Marine_managed_areas.xlsx
+++ b/prep/LSP/Marine_managed_areas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>OBJECTID *</t>
   </si>
@@ -40,6 +40,27 @@
   </si>
   <si>
     <t>zoned_w_no_take</t>
+  </si>
+  <si>
+    <t>OBJECTID</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>RGN_ID</t>
+  </si>
+  <si>
+    <t>ZONED_MULTIPLE_USE</t>
+  </si>
+  <si>
+    <t>NO_IMPACT</t>
+  </si>
+  <si>
+    <t>ZONED_W_NO_TAKE_AREAS</t>
+  </si>
+  <si>
+    <t>UNIFORM_MULTIPLE_USE</t>
   </si>
 </sst>
 </file>
@@ -378,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I23" sqref="I23:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +410,9 @@
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" customWidth="1"/>
     <col min="23" max="23" width="18.42578125" customWidth="1"/>
   </cols>
@@ -524,6 +547,304 @@
       <c r="H5">
         <f t="shared" si="1"/>
         <v>150.63591157031598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>200320881.08602199</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1889819.632887</v>
+      </c>
+      <c r="F9">
+        <v>410090860.33647799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>196541241.82024801</v>
+      </c>
+      <c r="D10">
+        <v>5669458.8986609997</v>
+      </c>
+      <c r="E10">
+        <v>7559278.5315479999</v>
+      </c>
+      <c r="F10">
+        <v>162524488.42828199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>75592785.315479994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>51025130.087949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>C9/1000000</f>
+        <v>200.32088108602198</v>
+      </c>
+      <c r="D16">
+        <f>D9/1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" ref="C17:D19" si="2">C10/1000000</f>
+        <v>196.54124182024802</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>5.6694588986609995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>200320881.08602199</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1889819.632887</v>
+      </c>
+      <c r="F23">
+        <v>410090860.33647799</v>
+      </c>
+      <c r="H23">
+        <f>SUM(C23:F23)</f>
+        <v>612301561.05538702</v>
+      </c>
+      <c r="I23">
+        <f>H23/1000000</f>
+        <v>612.30156105538697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>196541241.82024801</v>
+      </c>
+      <c r="D24">
+        <v>5669458.8986609997</v>
+      </c>
+      <c r="E24">
+        <v>7559278.5315479999</v>
+      </c>
+      <c r="F24">
+        <v>162524488.42828199</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H26" si="3">SUM(C24:F24)</f>
+        <v>372294467.67873895</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I26" si="4">H24/1000000</f>
+        <v>372.29446767873895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>75592785.315479994</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>75592785.315479994</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>75.59278531548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>51025130.087949</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>51025130.087949</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>51.025130087949002</v>
       </c>
     </row>
   </sheetData>
